--- a/评估模型调参.xlsx
+++ b/评估模型调参.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3.code\CURE-GC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5EF73-337D-4985-BDA2-DE7A6095940B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3540D95C-8240-4901-971A-201C3DC116D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
   <si>
     <t>生成结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>attributes.remove( attrKey ) ; return ;</t>
-  </si>
-  <si>
-    <t>attributes.remove( attrKey ) ; return ;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -601,6 +598,9 @@
   <si>
     <t>4</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(_hasSegments ) {_hasSegments =_hasSegments ; }</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +665,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +898,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,26 +934,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,7 +1217,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>43</v>
@@ -1225,90 +1225,90 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="20">
         <v>3</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="50">
         <v>1.67</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="20">
         <v>3</v>
       </c>
@@ -1318,15 +1318,15 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="20">
         <v>7</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="45">
         <v>18.14</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="20">
         <v>4</v>
       </c>
@@ -1336,15 +1336,15 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="20">
         <v>8</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="45">
         <v>24</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="20">
         <v>7</v>
       </c>
@@ -1354,15 +1354,15 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="20">
         <v>11</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="45">
         <v>92</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="20">
         <v>15</v>
       </c>
@@ -1372,15 +1372,15 @@
     </row>
     <row r="20" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="19">
         <v>14</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="46">
         <v>246</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="19">
         <v>20</v>
       </c>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
       <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -1594,15 +1594,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="56" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>50</v>
       </c>
@@ -1631,7 +1633,7 @@
       <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="44" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="10"/>
@@ -1724,7 +1726,7 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>57</v>
@@ -1732,7 +1734,7 @@
       <c r="F19" s="2">
         <v>35</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H19" s="3">
@@ -1790,7 +1792,7 @@
       <c r="A1" s="24"/>
       <c r="B1" s="24"/>
       <c r="C1" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
@@ -1802,16 +1804,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>75</v>
-      </c>
       <c r="E2" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -1819,16 +1821,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1836,16 +1838,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,13 +1858,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.25">
@@ -1870,13 +1872,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="24"/>
     </row>
@@ -1894,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,16 +1904,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.25">
@@ -1925,10 +1927,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -1939,13 +1941,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.25">
@@ -1959,10 +1961,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.25">
@@ -1976,10 +1978,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,16 +1989,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,10 +2012,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,16 +2023,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.25">
@@ -2044,10 +2046,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -2061,10 +2063,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -2079,10 +2081,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2101,139 +2103,138 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.6328125" style="55" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="55"/>
+    <col min="1" max="5" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="54" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="53"/>
-    </row>
-    <row r="2" spans="1:5" s="58" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" s="43" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>75</v>
-      </c>
       <c r="E2" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="58" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+      <c r="D5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="C6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="54" t="s">
+      <c r="C7" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
+      <c r="E7" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="56" t="s">
+      <c r="C8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
-        <v>6</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
-        <v>7</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="58" customFormat="1" ht="56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="43" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -2241,130 +2242,130 @@
         <v>6</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="56" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" s="53">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+      <c r="C14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="54" t="s">
+      <c r="C15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E15" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="53">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A14" s="53">
-        <v>13</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
-        <v>14</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="54" t="s">
+      <c r="C16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E16" s="25" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
-        <v>15</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADAADE9-A163-4C92-AE20-057CFF63E0E0}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2389,61 +2390,61 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="51">
+      <c r="C2" s="53">
         <v>10</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53">
         <v>100</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52">
+      <c r="F2" s="53"/>
+      <c r="G2" s="54">
         <v>500</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53">
         <v>1000</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" s="49"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>111</v>
-      </c>
       <c r="B4" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="38">
         <v>4</v>
@@ -2474,9 +2475,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="38">
         <v>8</v>
@@ -2507,11 +2508,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>112</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="C6" s="42">
         <v>4</v>
@@ -2542,9 +2543,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="38">
         <v>10</v>
@@ -2570,7 +2571,7 @@
       <c r="J7" s="38">
         <v>22.47</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7">
         <v>46.33</v>
       </c>
     </row>
